--- a/natmiOut/OldD2/LR-pairs_lrc2p/Timp1-Cd63.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Timp1-Cd63.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.99955127041596</v>
+        <v>3.3723145</v>
       </c>
       <c r="H2">
-        <v>2.99955127041596</v>
+        <v>6.744629</v>
       </c>
       <c r="I2">
-        <v>0.0118050214616817</v>
+        <v>0.01213545498976471</v>
       </c>
       <c r="J2">
-        <v>0.0118050214616817</v>
+        <v>0.008433128867785357</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.2071866203834</v>
+        <v>16.675925</v>
       </c>
       <c r="N2">
-        <v>14.2071866203834</v>
+        <v>33.35185</v>
       </c>
       <c r="O2">
-        <v>0.02188883174732558</v>
+        <v>0.02433003445663251</v>
       </c>
       <c r="P2">
-        <v>0.02188883174732558</v>
+        <v>0.01773021928083408</v>
       </c>
       <c r="Q2">
-        <v>42.61518467620766</v>
+        <v>56.2364636784125</v>
       </c>
       <c r="R2">
-        <v>42.61518467620766</v>
+        <v>224.94585471365</v>
       </c>
       <c r="S2">
-        <v>0.0002583981285483183</v>
+        <v>0.0002952560380478883</v>
       </c>
       <c r="T2">
-        <v>0.0002583981285483183</v>
+        <v>0.0001495212240493664</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.99955127041596</v>
+        <v>3.3723145</v>
       </c>
       <c r="H3">
-        <v>2.99955127041596</v>
+        <v>6.744629</v>
       </c>
       <c r="I3">
-        <v>0.0118050214616817</v>
+        <v>0.01213545498976471</v>
       </c>
       <c r="J3">
-        <v>0.0118050214616817</v>
+        <v>0.008433128867785357</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>166.714833297248</v>
+        <v>174.0937833333333</v>
       </c>
       <c r="N3">
-        <v>166.714833297248</v>
+        <v>522.28135</v>
       </c>
       <c r="O3">
-        <v>0.2568554234792205</v>
+        <v>0.2540013670717226</v>
       </c>
       <c r="P3">
-        <v>0.2568554234792205</v>
+        <v>0.2776506509171172</v>
       </c>
       <c r="Q3">
-        <v>500.0696900139452</v>
+        <v>587.0989898948583</v>
       </c>
       <c r="R3">
-        <v>500.0696900139452</v>
+        <v>3522.59393936915</v>
       </c>
       <c r="S3">
-        <v>0.00303218378672154</v>
+        <v>0.003082422157437593</v>
       </c>
       <c r="T3">
-        <v>0.00303218378672154</v>
+        <v>0.002341463719408536</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.99955127041596</v>
+        <v>3.3723145</v>
       </c>
       <c r="H4">
-        <v>2.99955127041596</v>
+        <v>6.744629</v>
       </c>
       <c r="I4">
-        <v>0.0118050214616817</v>
+        <v>0.01213545498976471</v>
       </c>
       <c r="J4">
-        <v>0.0118050214616817</v>
+        <v>0.008433128867785357</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>142.805228914054</v>
+        <v>155.1466163333333</v>
       </c>
       <c r="N4">
-        <v>142.805228914054</v>
+        <v>465.439849</v>
       </c>
       <c r="O4">
-        <v>0.2200182000744133</v>
+        <v>0.2263576096210522</v>
       </c>
       <c r="P4">
-        <v>0.2200182000744133</v>
+        <v>0.2474330684747114</v>
       </c>
       <c r="Q4">
-        <v>428.3516058111927</v>
+        <v>523.2031838868368</v>
       </c>
       <c r="R4">
-        <v>428.3516058111927</v>
+        <v>3139.219103321021</v>
       </c>
       <c r="S4">
-        <v>0.002597319573839027</v>
+        <v>0.002746952583147009</v>
       </c>
       <c r="T4">
-        <v>0.002597319573839027</v>
+        <v>0.0020866349525988</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.99955127041596</v>
+        <v>3.3723145</v>
       </c>
       <c r="H5">
-        <v>2.99955127041596</v>
+        <v>6.744629</v>
       </c>
       <c r="I5">
-        <v>0.0118050214616817</v>
+        <v>0.01213545498976471</v>
       </c>
       <c r="J5">
-        <v>0.0118050214616817</v>
+        <v>0.008433128867785357</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>156.234110601195</v>
+        <v>166.3144986666667</v>
       </c>
       <c r="N5">
-        <v>156.234110601195</v>
+        <v>498.943496</v>
       </c>
       <c r="O5">
-        <v>0.2407079073091197</v>
+        <v>0.2426514561079857</v>
       </c>
       <c r="P5">
-        <v>0.2407079073091197</v>
+        <v>0.2652439847512496</v>
       </c>
       <c r="Q5">
-        <v>468.6322249361221</v>
+        <v>560.8647954138306</v>
       </c>
       <c r="R5">
-        <v>468.6322249361221</v>
+        <v>3365.188772482984</v>
       </c>
       <c r="S5">
-        <v>0.002841562011780648</v>
+        <v>0.002944685823799327</v>
       </c>
       <c r="T5">
-        <v>0.002841562011780648</v>
+        <v>0.002236836704812182</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.99955127041596</v>
+        <v>3.3723145</v>
       </c>
       <c r="H6">
-        <v>2.99955127041596</v>
+        <v>6.744629</v>
       </c>
       <c r="I6">
-        <v>0.0118050214616817</v>
+        <v>0.01213545498976471</v>
       </c>
       <c r="J6">
-        <v>0.0118050214616817</v>
+        <v>0.008433128867785357</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.4524007217556</v>
+        <v>14.709034</v>
       </c>
       <c r="N6">
-        <v>11.4524007217556</v>
+        <v>44.127102</v>
       </c>
       <c r="O6">
-        <v>0.01764456814706735</v>
+        <v>0.02146035701430531</v>
       </c>
       <c r="P6">
-        <v>0.01764456814706735</v>
+        <v>0.02345846466351139</v>
       </c>
       <c r="Q6">
-        <v>34.35206313425467</v>
+        <v>49.603488639193</v>
       </c>
       <c r="R6">
-        <v>34.35206313425467</v>
+        <v>297.620931835158</v>
       </c>
       <c r="S6">
-        <v>0.0002082945056582354</v>
+        <v>0.0002604311966113834</v>
       </c>
       <c r="T6">
-        <v>0.0002082945056582354</v>
+        <v>0.0001978282555477806</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.99955127041596</v>
+        <v>3.3723145</v>
       </c>
       <c r="H7">
-        <v>2.99955127041596</v>
+        <v>6.744629</v>
       </c>
       <c r="I7">
-        <v>0.0118050214616817</v>
+        <v>0.01213545498976471</v>
       </c>
       <c r="J7">
-        <v>0.0118050214616817</v>
+        <v>0.008433128867785357</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>157.647221463045</v>
+        <v>158.4650495</v>
       </c>
       <c r="N7">
-        <v>157.647221463045</v>
+        <v>316.930099</v>
       </c>
       <c r="O7">
-        <v>0.2428850692428536</v>
+        <v>0.2311991757283016</v>
       </c>
       <c r="P7">
-        <v>0.2428850692428536</v>
+        <v>0.1684836119125762</v>
       </c>
       <c r="Q7">
-        <v>472.8709234170229</v>
+        <v>534.3939841720678</v>
       </c>
       <c r="R7">
-        <v>472.8709234170229</v>
+        <v>2137.575936688271</v>
       </c>
       <c r="S7">
-        <v>0.002867263455133934</v>
+        <v>0.002805707190721505</v>
       </c>
       <c r="T7">
-        <v>0.002867263455133934</v>
+        <v>0.001420844011368692</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>212.485202573714</v>
+        <v>229.879224</v>
       </c>
       <c r="H8">
-        <v>212.485202573714</v>
+        <v>689.637672</v>
       </c>
       <c r="I8">
-        <v>0.8362558764746931</v>
+        <v>0.8272327435457276</v>
       </c>
       <c r="J8">
-        <v>0.8362558764746931</v>
+        <v>0.8622866224451322</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.2071866203834</v>
+        <v>16.675925</v>
       </c>
       <c r="N8">
-        <v>14.2071866203834</v>
+        <v>33.35185</v>
       </c>
       <c r="O8">
-        <v>0.02188883174732558</v>
+        <v>0.02433003445663251</v>
       </c>
       <c r="P8">
-        <v>0.02188883174732558</v>
+        <v>0.01773021928083408</v>
       </c>
       <c r="Q8">
-        <v>3018.816927034726</v>
+        <v>3833.4486984822</v>
       </c>
       <c r="R8">
-        <v>3018.816927034726</v>
+        <v>23000.6921908932</v>
       </c>
       <c r="S8">
-        <v>0.01830466417786684</v>
+        <v>0.0201266011541222</v>
       </c>
       <c r="T8">
-        <v>0.01830466417786684</v>
+        <v>0.01528853089888198</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>212.485202573714</v>
+        <v>229.879224</v>
       </c>
       <c r="H9">
-        <v>212.485202573714</v>
+        <v>689.637672</v>
       </c>
       <c r="I9">
-        <v>0.8362558764746931</v>
+        <v>0.8272327435457276</v>
       </c>
       <c r="J9">
-        <v>0.8362558764746931</v>
+        <v>0.8622866224451322</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>166.714833297248</v>
+        <v>174.0937833333333</v>
       </c>
       <c r="N9">
-        <v>166.714833297248</v>
+        <v>522.28135</v>
       </c>
       <c r="O9">
-        <v>0.2568554234792205</v>
+        <v>0.2540013670717226</v>
       </c>
       <c r="P9">
-        <v>0.2568554234792205</v>
+        <v>0.2776506509171172</v>
       </c>
       <c r="Q9">
-        <v>35424.4351252087</v>
+        <v>40020.5438158908</v>
       </c>
       <c r="R9">
-        <v>35424.4351252087</v>
+        <v>360184.8943430171</v>
       </c>
       <c r="S9">
-        <v>0.214796857288894</v>
+        <v>0.2101182477471065</v>
       </c>
       <c r="T9">
-        <v>0.214796857288894</v>
+        <v>0.2394144419990135</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>212.485202573714</v>
+        <v>229.879224</v>
       </c>
       <c r="H10">
-        <v>212.485202573714</v>
+        <v>689.637672</v>
       </c>
       <c r="I10">
-        <v>0.8362558764746931</v>
+        <v>0.8272327435457276</v>
       </c>
       <c r="J10">
-        <v>0.8362558764746931</v>
+        <v>0.8622866224451322</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>142.805228914054</v>
+        <v>155.1466163333333</v>
       </c>
       <c r="N10">
-        <v>142.805228914054</v>
+        <v>465.439849</v>
       </c>
       <c r="O10">
-        <v>0.2200182000744133</v>
+        <v>0.2263576096210522</v>
       </c>
       <c r="P10">
-        <v>0.2200182000744133</v>
+        <v>0.2474330684747114</v>
       </c>
       <c r="Q10">
-        <v>30343.99799438836</v>
+        <v>35664.98376893239</v>
       </c>
       <c r="R10">
-        <v>30343.99799438836</v>
+        <v>320984.8539203915</v>
       </c>
       <c r="S10">
-        <v>0.1839915127436128</v>
+        <v>0.1872504264292758</v>
       </c>
       <c r="T10">
-        <v>0.1839915127436128</v>
+        <v>0.2133582248962941</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>212.485202573714</v>
+        <v>229.879224</v>
       </c>
       <c r="H11">
-        <v>212.485202573714</v>
+        <v>689.637672</v>
       </c>
       <c r="I11">
-        <v>0.8362558764746931</v>
+        <v>0.8272327435457276</v>
       </c>
       <c r="J11">
-        <v>0.8362558764746931</v>
+        <v>0.8622866224451322</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>156.234110601195</v>
+        <v>166.3144986666667</v>
       </c>
       <c r="N11">
-        <v>156.234110601195</v>
+        <v>498.943496</v>
       </c>
       <c r="O11">
-        <v>0.2407079073091197</v>
+        <v>0.2426514561079857</v>
       </c>
       <c r="P11">
-        <v>0.2407079073091197</v>
+        <v>0.2652439847512496</v>
       </c>
       <c r="Q11">
-        <v>33197.43664001895</v>
+        <v>38232.24789344236</v>
       </c>
       <c r="R11">
-        <v>33197.43664001895</v>
+        <v>344090.2310409812</v>
       </c>
       <c r="S11">
-        <v>0.2012934020011771</v>
+        <v>0.2007292297615748</v>
       </c>
       <c r="T11">
-        <v>0.2012934020011771</v>
+        <v>0.2287163397350432</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>212.485202573714</v>
+        <v>229.879224</v>
       </c>
       <c r="H12">
-        <v>212.485202573714</v>
+        <v>689.637672</v>
       </c>
       <c r="I12">
-        <v>0.8362558764746931</v>
+        <v>0.8272327435457276</v>
       </c>
       <c r="J12">
-        <v>0.8362558764746931</v>
+        <v>0.8622866224451322</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.4524007217556</v>
+        <v>14.709034</v>
       </c>
       <c r="N12">
-        <v>11.4524007217556</v>
+        <v>44.127102</v>
       </c>
       <c r="O12">
-        <v>0.01764456814706735</v>
+        <v>0.02146035701430531</v>
       </c>
       <c r="P12">
-        <v>0.01764456814706735</v>
+        <v>0.02345846466351139</v>
       </c>
       <c r="Q12">
-        <v>2433.465687317587</v>
+        <v>3381.301321709616</v>
       </c>
       <c r="R12">
-        <v>2433.465687317587</v>
+        <v>30431.71189538654</v>
       </c>
       <c r="S12">
-        <v>0.01475537380084326</v>
+        <v>0.01775271001041458</v>
       </c>
       <c r="T12">
-        <v>0.01475537380084326</v>
+        <v>0.02022792026244772</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>212.485202573714</v>
+        <v>229.879224</v>
       </c>
       <c r="H13">
-        <v>212.485202573714</v>
+        <v>689.637672</v>
       </c>
       <c r="I13">
-        <v>0.8362558764746931</v>
+        <v>0.8272327435457276</v>
       </c>
       <c r="J13">
-        <v>0.8362558764746931</v>
+        <v>0.8622866224451322</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>157.647221463045</v>
+        <v>158.4650495</v>
       </c>
       <c r="N13">
-        <v>157.647221463045</v>
+        <v>316.930099</v>
       </c>
       <c r="O13">
-        <v>0.2428850692428536</v>
+        <v>0.2311991757283016</v>
       </c>
       <c r="P13">
-        <v>0.2428850692428536</v>
+        <v>0.1684836119125762</v>
       </c>
       <c r="Q13">
-        <v>33497.70178775827</v>
+        <v>36427.82261018159</v>
       </c>
       <c r="R13">
-        <v>33497.70178775827</v>
+        <v>218566.9356610895</v>
       </c>
       <c r="S13">
-        <v>0.2031140664622991</v>
+        <v>0.1912555284432337</v>
       </c>
       <c r="T13">
-        <v>0.2031140664622991</v>
+        <v>0.1452811646534518</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.51942259372003</v>
+        <v>7.570674</v>
       </c>
       <c r="H14">
-        <v>5.51942259372003</v>
+        <v>22.712022</v>
       </c>
       <c r="I14">
-        <v>0.02172221652538057</v>
+        <v>0.02724347731185272</v>
       </c>
       <c r="J14">
-        <v>0.02172221652538057</v>
+        <v>0.02839791608611477</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>14.2071866203834</v>
+        <v>16.675925</v>
       </c>
       <c r="N14">
-        <v>14.2071866203834</v>
+        <v>33.35185</v>
       </c>
       <c r="O14">
-        <v>0.02188883174732558</v>
+        <v>0.02433003445663251</v>
       </c>
       <c r="P14">
-        <v>0.02188883174732558</v>
+        <v>0.01773021928083408</v>
       </c>
       <c r="Q14">
-        <v>78.41546682574105</v>
+        <v>126.24799182345</v>
       </c>
       <c r="R14">
-        <v>78.41546682574105</v>
+        <v>757.4879509407</v>
       </c>
       <c r="S14">
-        <v>0.0004754739427030306</v>
+        <v>0.0006628347417158627</v>
       </c>
       <c r="T14">
-        <v>0.0004754739427030306</v>
+        <v>0.0005035012793255404</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.51942259372003</v>
+        <v>7.570674</v>
       </c>
       <c r="H15">
-        <v>5.51942259372003</v>
+        <v>22.712022</v>
       </c>
       <c r="I15">
-        <v>0.02172221652538057</v>
+        <v>0.02724347731185272</v>
       </c>
       <c r="J15">
-        <v>0.02172221652538057</v>
+        <v>0.02839791608611477</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>166.714833297248</v>
+        <v>174.0937833333333</v>
       </c>
       <c r="N15">
-        <v>166.714833297248</v>
+        <v>522.28135</v>
       </c>
       <c r="O15">
-        <v>0.2568554234792205</v>
+        <v>0.2540013670717226</v>
       </c>
       <c r="P15">
-        <v>0.2568554234792205</v>
+        <v>0.2776506509171172</v>
       </c>
       <c r="Q15">
-        <v>920.169617609099</v>
+        <v>1318.0072790433</v>
       </c>
       <c r="R15">
-        <v>920.169617609099</v>
+        <v>11862.0655113897</v>
       </c>
       <c r="S15">
-        <v>0.005579469124533947</v>
+        <v>0.006919880480998048</v>
       </c>
       <c r="T15">
-        <v>0.005579469124533947</v>
+        <v>0.007884699885999439</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.51942259372003</v>
+        <v>7.570674</v>
       </c>
       <c r="H16">
-        <v>5.51942259372003</v>
+        <v>22.712022</v>
       </c>
       <c r="I16">
-        <v>0.02172221652538057</v>
+        <v>0.02724347731185272</v>
       </c>
       <c r="J16">
-        <v>0.02172221652538057</v>
+        <v>0.02839791608611477</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>142.805228914054</v>
+        <v>155.1466163333333</v>
       </c>
       <c r="N16">
-        <v>142.805228914054</v>
+        <v>465.439849</v>
       </c>
       <c r="O16">
-        <v>0.2200182000744133</v>
+        <v>0.2263576096210522</v>
       </c>
       <c r="P16">
-        <v>0.2200182000744133</v>
+        <v>0.2474330684747114</v>
       </c>
       <c r="Q16">
-        <v>788.2024069695906</v>
+        <v>1174.564454462742</v>
       </c>
       <c r="R16">
-        <v>788.2024069695906</v>
+        <v>10571.08009016468</v>
       </c>
       <c r="S16">
-        <v>0.004779282981540909</v>
+        <v>0.006166768402076349</v>
       </c>
       <c r="T16">
-        <v>0.004779282981540909</v>
+        <v>0.007026583515474745</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.51942259372003</v>
+        <v>7.570674</v>
       </c>
       <c r="H17">
-        <v>5.51942259372003</v>
+        <v>22.712022</v>
       </c>
       <c r="I17">
-        <v>0.02172221652538057</v>
+        <v>0.02724347731185272</v>
       </c>
       <c r="J17">
-        <v>0.02172221652538057</v>
+        <v>0.02839791608611477</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>156.234110601195</v>
+        <v>166.3144986666667</v>
       </c>
       <c r="N17">
-        <v>156.234110601195</v>
+        <v>498.943496</v>
       </c>
       <c r="O17">
-        <v>0.2407079073091197</v>
+        <v>0.2426514561079857</v>
       </c>
       <c r="P17">
-        <v>0.2407079073091197</v>
+        <v>0.2652439847512496</v>
       </c>
       <c r="Q17">
-        <v>862.3220799619897</v>
+        <v>1259.112850878768</v>
       </c>
       <c r="R17">
-        <v>862.3220799619897</v>
+        <v>11332.01565790891</v>
       </c>
       <c r="S17">
-        <v>0.005228709281939934</v>
+        <v>0.006610669439165935</v>
       </c>
       <c r="T17">
-        <v>0.005228709281939934</v>
+        <v>0.007532376421312691</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.51942259372003</v>
+        <v>7.570674</v>
       </c>
       <c r="H18">
-        <v>5.51942259372003</v>
+        <v>22.712022</v>
       </c>
       <c r="I18">
-        <v>0.02172221652538057</v>
+        <v>0.02724347731185272</v>
       </c>
       <c r="J18">
-        <v>0.02172221652538057</v>
+        <v>0.02839791608611477</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>11.4524007217556</v>
+        <v>14.709034</v>
       </c>
       <c r="N18">
-        <v>11.4524007217556</v>
+        <v>44.127102</v>
       </c>
       <c r="O18">
-        <v>0.01764456814706735</v>
+        <v>0.02146035701430531</v>
       </c>
       <c r="P18">
-        <v>0.01764456814706735</v>
+        <v>0.02345846466351139</v>
       </c>
       <c r="Q18">
-        <v>63.21063929599344</v>
+        <v>111.357301268916</v>
       </c>
       <c r="R18">
-        <v>63.21063929599344</v>
+        <v>1002.215711420244</v>
       </c>
       <c r="S18">
-        <v>0.00038327912978743</v>
+        <v>0.0005846547494234859</v>
       </c>
       <c r="T18">
-        <v>0.00038327912978743</v>
+        <v>0.0006661715110234849</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.51942259372003</v>
+        <v>7.570674</v>
       </c>
       <c r="H19">
-        <v>5.51942259372003</v>
+        <v>22.712022</v>
       </c>
       <c r="I19">
-        <v>0.02172221652538057</v>
+        <v>0.02724347731185272</v>
       </c>
       <c r="J19">
-        <v>0.02172221652538057</v>
+        <v>0.02839791608611477</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>157.647221463045</v>
+        <v>158.4650495</v>
       </c>
       <c r="N19">
-        <v>157.647221463045</v>
+        <v>316.930099</v>
       </c>
       <c r="O19">
-        <v>0.2428850692428536</v>
+        <v>0.2311991757283016</v>
       </c>
       <c r="P19">
-        <v>0.2428850692428536</v>
+        <v>0.1684836119125762</v>
       </c>
       <c r="Q19">
-        <v>870.1216359803159</v>
+        <v>1199.687230158363</v>
       </c>
       <c r="R19">
-        <v>870.1216359803159</v>
+        <v>7198.123380950179</v>
       </c>
       <c r="S19">
-        <v>0.00527600206487532</v>
+        <v>0.006298669498473033</v>
       </c>
       <c r="T19">
-        <v>0.00527600206487532</v>
+        <v>0.004784583472978866</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.9732079080734</v>
+        <v>2.380743666666667</v>
       </c>
       <c r="H20">
-        <v>1.9732079080734</v>
+        <v>7.142231</v>
       </c>
       <c r="I20">
-        <v>0.007765748808132992</v>
+        <v>0.00856723404919699</v>
       </c>
       <c r="J20">
-        <v>0.007765748808132992</v>
+        <v>0.008930269467229626</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>14.2071866203834</v>
+        <v>16.675925</v>
       </c>
       <c r="N20">
-        <v>14.2071866203834</v>
+        <v>33.35185</v>
       </c>
       <c r="O20">
-        <v>0.02188883174732558</v>
+        <v>0.02433003445663251</v>
       </c>
       <c r="P20">
-        <v>0.02188883174732558</v>
+        <v>0.01773021928083408</v>
       </c>
       <c r="Q20">
-        <v>28.03373299081512</v>
+        <v>39.70110282955833</v>
       </c>
       <c r="R20">
-        <v>28.03373299081512</v>
+        <v>238.20661697735</v>
       </c>
       <c r="S20">
-        <v>0.0001699831690532172</v>
+        <v>0.0002084410996149981</v>
       </c>
       <c r="T20">
-        <v>0.0001699831690532172</v>
+        <v>0.0001583356358909186</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.9732079080734</v>
+        <v>2.380743666666667</v>
       </c>
       <c r="H21">
-        <v>1.9732079080734</v>
+        <v>7.142231</v>
       </c>
       <c r="I21">
-        <v>0.007765748808132992</v>
+        <v>0.00856723404919699</v>
       </c>
       <c r="J21">
-        <v>0.007765748808132992</v>
+        <v>0.008930269467229626</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>166.714833297248</v>
+        <v>174.0937833333333</v>
       </c>
       <c r="N21">
-        <v>166.714833297248</v>
+        <v>522.28135</v>
       </c>
       <c r="O21">
-        <v>0.2568554234792205</v>
+        <v>0.2540013670717226</v>
       </c>
       <c r="P21">
-        <v>0.2568554234792205</v>
+        <v>0.2776506509171172</v>
       </c>
       <c r="Q21">
-        <v>328.9630274552683</v>
+        <v>414.4726720768722</v>
       </c>
       <c r="R21">
-        <v>328.9630274552683</v>
+        <v>3730.25404869185</v>
       </c>
       <c r="S21">
-        <v>0.001994674698746251</v>
+        <v>0.002176089160519445</v>
       </c>
       <c r="T21">
-        <v>0.001994674698746251</v>
+        <v>0.002479495130441563</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.9732079080734</v>
+        <v>2.380743666666667</v>
       </c>
       <c r="H22">
-        <v>1.9732079080734</v>
+        <v>7.142231</v>
       </c>
       <c r="I22">
-        <v>0.007765748808132992</v>
+        <v>0.00856723404919699</v>
       </c>
       <c r="J22">
-        <v>0.007765748808132992</v>
+        <v>0.008930269467229626</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>142.805228914054</v>
+        <v>155.1466163333333</v>
       </c>
       <c r="N22">
-        <v>142.805228914054</v>
+        <v>465.439849</v>
       </c>
       <c r="O22">
-        <v>0.2200182000744133</v>
+        <v>0.2263576096210522</v>
       </c>
       <c r="P22">
-        <v>0.2200182000744133</v>
+        <v>0.2474330684747114</v>
       </c>
       <c r="Q22">
-        <v>281.7844070074435</v>
+        <v>369.3643242403465</v>
       </c>
       <c r="R22">
-        <v>281.7844070074435</v>
+        <v>3324.278918163119</v>
       </c>
       <c r="S22">
-        <v>0.001708606074995441</v>
+        <v>0.001939258620440319</v>
       </c>
       <c r="T22">
-        <v>0.001708606074995441</v>
+        <v>0.002209643976582653</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.9732079080734</v>
+        <v>2.380743666666667</v>
       </c>
       <c r="H23">
-        <v>1.9732079080734</v>
+        <v>7.142231</v>
       </c>
       <c r="I23">
-        <v>0.007765748808132992</v>
+        <v>0.00856723404919699</v>
       </c>
       <c r="J23">
-        <v>0.007765748808132992</v>
+        <v>0.008930269467229626</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>156.234110601195</v>
+        <v>166.3144986666667</v>
       </c>
       <c r="N23">
-        <v>156.234110601195</v>
+        <v>498.943496</v>
       </c>
       <c r="O23">
-        <v>0.2407079073091197</v>
+        <v>0.2426514561079857</v>
       </c>
       <c r="P23">
-        <v>0.2407079073091197</v>
+        <v>0.2652439847512496</v>
       </c>
       <c r="Q23">
-        <v>308.2823825490922</v>
+        <v>395.9521893755084</v>
       </c>
       <c r="R23">
-        <v>308.2823825490922</v>
+        <v>3563.569704379576</v>
       </c>
       <c r="S23">
-        <v>0.001869277144293983</v>
+        <v>0.002078851816855565</v>
       </c>
       <c r="T23">
-        <v>0.001869277144293983</v>
+        <v>0.002368700258390405</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.9732079080734</v>
+        <v>2.380743666666667</v>
       </c>
       <c r="H24">
-        <v>1.9732079080734</v>
+        <v>7.142231</v>
       </c>
       <c r="I24">
-        <v>0.007765748808132992</v>
+        <v>0.00856723404919699</v>
       </c>
       <c r="J24">
-        <v>0.007765748808132992</v>
+        <v>0.008930269467229626</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>11.4524007217556</v>
+        <v>14.709034</v>
       </c>
       <c r="N24">
-        <v>11.4524007217556</v>
+        <v>44.127102</v>
       </c>
       <c r="O24">
-        <v>0.01764456814706735</v>
+        <v>0.02146035701430531</v>
       </c>
       <c r="P24">
-        <v>0.01764456814706735</v>
+        <v>0.02345846466351139</v>
       </c>
       <c r="Q24">
-        <v>22.59796767059366</v>
+        <v>35.01843953828467</v>
       </c>
       <c r="R24">
-        <v>22.59796767059366</v>
+        <v>315.165955844562</v>
       </c>
       <c r="S24">
-        <v>0.0001370232840581096</v>
+        <v>0.0001838559013208799</v>
       </c>
       <c r="T24">
-        <v>0.0001370232840581096</v>
+        <v>0.0002094904107326409</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.9732079080734</v>
+        <v>2.380743666666667</v>
       </c>
       <c r="H25">
-        <v>1.9732079080734</v>
+        <v>7.142231</v>
       </c>
       <c r="I25">
-        <v>0.007765748808132992</v>
+        <v>0.00856723404919699</v>
       </c>
       <c r="J25">
-        <v>0.007765748808132992</v>
+        <v>0.008930269467229626</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>157.647221463045</v>
+        <v>158.4650495</v>
       </c>
       <c r="N25">
-        <v>157.647221463045</v>
+        <v>316.930099</v>
       </c>
       <c r="O25">
-        <v>0.2428850692428536</v>
+        <v>0.2311991757283016</v>
       </c>
       <c r="P25">
-        <v>0.2428850692428536</v>
+        <v>0.1684836119125762</v>
       </c>
       <c r="Q25">
-        <v>311.070744076679</v>
+        <v>377.2646629851449</v>
       </c>
       <c r="R25">
-        <v>311.070744076679</v>
+        <v>2263.587977910869</v>
       </c>
       <c r="S25">
-        <v>0.00188618443698599</v>
+        <v>0.001980737450445784</v>
       </c>
       <c r="T25">
-        <v>0.00188618443698599</v>
+        <v>0.001504604055191445</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>3.90828916951755</v>
+        <v>4.168296333333333</v>
       </c>
       <c r="H26">
-        <v>3.90828916951755</v>
+        <v>12.504889</v>
       </c>
       <c r="I26">
-        <v>0.01538144654490762</v>
+        <v>0.01499983840094627</v>
       </c>
       <c r="J26">
-        <v>0.01538144654490762</v>
+        <v>0.01563545458384021</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>14.2071866203834</v>
+        <v>16.675925</v>
       </c>
       <c r="N26">
-        <v>14.2071866203834</v>
+        <v>33.35185</v>
       </c>
       <c r="O26">
-        <v>0.02188883174732558</v>
+        <v>0.02433003445663251</v>
       </c>
       <c r="P26">
-        <v>0.02188883174732558</v>
+        <v>0.01773021928083408</v>
       </c>
       <c r="Q26">
-        <v>55.52579359775909</v>
+        <v>69.51019703244167</v>
       </c>
       <c r="R26">
-        <v>55.52579359775909</v>
+        <v>417.0611821946499</v>
       </c>
       <c r="S26">
-        <v>0.0003366818954519653</v>
+        <v>0.0003649465851389423</v>
       </c>
       <c r="T26">
-        <v>0.0003366818954519653</v>
+        <v>0.0002772200383270093</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>3.90828916951755</v>
+        <v>4.168296333333333</v>
       </c>
       <c r="H27">
-        <v>3.90828916951755</v>
+        <v>12.504889</v>
       </c>
       <c r="I27">
-        <v>0.01538144654490762</v>
+        <v>0.01499983840094627</v>
       </c>
       <c r="J27">
-        <v>0.01538144654490762</v>
+        <v>0.01563545458384021</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>166.714833297248</v>
+        <v>174.0937833333333</v>
       </c>
       <c r="N27">
-        <v>166.714833297248</v>
+        <v>522.28135</v>
       </c>
       <c r="O27">
-        <v>0.2568554234792205</v>
+        <v>0.2540013670717226</v>
       </c>
       <c r="P27">
-        <v>0.2568554234792205</v>
+        <v>0.2776506509171172</v>
       </c>
       <c r="Q27">
-        <v>651.5697773735582</v>
+        <v>725.6744787244611</v>
       </c>
       <c r="R27">
-        <v>651.5697773735582</v>
+        <v>6531.070308520149</v>
       </c>
       <c r="S27">
-        <v>0.003950807966015241</v>
+        <v>0.003809979459695275</v>
       </c>
       <c r="T27">
-        <v>0.003950807966015241</v>
+        <v>0.004341194142588257</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>3.90828916951755</v>
+        <v>4.168296333333333</v>
       </c>
       <c r="H28">
-        <v>3.90828916951755</v>
+        <v>12.504889</v>
       </c>
       <c r="I28">
-        <v>0.01538144654490762</v>
+        <v>0.01499983840094627</v>
       </c>
       <c r="J28">
-        <v>0.01538144654490762</v>
+        <v>0.01563545458384021</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>142.805228914054</v>
+        <v>155.1466163333333</v>
       </c>
       <c r="N28">
-        <v>142.805228914054</v>
+        <v>465.439849</v>
       </c>
       <c r="O28">
-        <v>0.2200182000744133</v>
+        <v>0.2263576096210522</v>
       </c>
       <c r="P28">
-        <v>0.2200182000744133</v>
+        <v>0.2474330684747114</v>
       </c>
       <c r="Q28">
-        <v>558.1241295152718</v>
+        <v>646.6970719913068</v>
       </c>
       <c r="R28">
-        <v>558.1241295152718</v>
+        <v>5820.27364792176</v>
       </c>
       <c r="S28">
-        <v>0.003384198183351378</v>
+        <v>0.003395327565140264</v>
       </c>
       <c r="T28">
-        <v>0.003384198183351378</v>
+        <v>0.003868728504676574</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>3.90828916951755</v>
+        <v>4.168296333333333</v>
       </c>
       <c r="H29">
-        <v>3.90828916951755</v>
+        <v>12.504889</v>
       </c>
       <c r="I29">
-        <v>0.01538144654490762</v>
+        <v>0.01499983840094627</v>
       </c>
       <c r="J29">
-        <v>0.01538144654490762</v>
+        <v>0.01563545458384021</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>156.234110601195</v>
+        <v>166.3144986666667</v>
       </c>
       <c r="N29">
-        <v>156.234110601195</v>
+        <v>498.943496</v>
       </c>
       <c r="O29">
-        <v>0.2407079073091197</v>
+        <v>0.2426514561079857</v>
       </c>
       <c r="P29">
-        <v>0.2407079073091197</v>
+        <v>0.2652439847512496</v>
       </c>
       <c r="Q29">
-        <v>610.6080823718574</v>
+        <v>693.2481149724381</v>
       </c>
       <c r="R29">
-        <v>610.6080823718574</v>
+        <v>6239.233034751943</v>
       </c>
       <c r="S29">
-        <v>0.003702435809211803</v>
+        <v>0.003639732629374093</v>
       </c>
       <c r="T29">
-        <v>0.003702435809211803</v>
+        <v>0.004147210277214967</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>3.90828916951755</v>
+        <v>4.168296333333333</v>
       </c>
       <c r="H30">
-        <v>3.90828916951755</v>
+        <v>12.504889</v>
       </c>
       <c r="I30">
-        <v>0.01538144654490762</v>
+        <v>0.01499983840094627</v>
       </c>
       <c r="J30">
-        <v>0.01538144654490762</v>
+        <v>0.01563545458384021</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>11.4524007217556</v>
+        <v>14.709034</v>
       </c>
       <c r="N30">
-        <v>11.4524007217556</v>
+        <v>44.127102</v>
       </c>
       <c r="O30">
-        <v>0.01764456814706735</v>
+        <v>0.02146035701430531</v>
       </c>
       <c r="P30">
-        <v>0.01764456814706735</v>
+        <v>0.02345846466351139</v>
       </c>
       <c r="Q30">
-        <v>44.75929370581239</v>
+        <v>61.31161248907534</v>
       </c>
       <c r="R30">
-        <v>44.75929370581239</v>
+        <v>551.8045124016779</v>
       </c>
       <c r="S30">
-        <v>0.0002713989817620962</v>
+        <v>0.0003219018872411934</v>
       </c>
       <c r="T30">
-        <v>0.0002713989817620962</v>
+        <v>0.0003667837588529526</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>3.90828916951755</v>
+        <v>4.168296333333333</v>
       </c>
       <c r="H31">
-        <v>3.90828916951755</v>
+        <v>12.504889</v>
       </c>
       <c r="I31">
-        <v>0.01538144654490762</v>
+        <v>0.01499983840094627</v>
       </c>
       <c r="J31">
-        <v>0.01538144654490762</v>
+        <v>0.01563545458384021</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>157.647221463045</v>
+        <v>158.4650495</v>
       </c>
       <c r="N31">
-        <v>157.647221463045</v>
+        <v>316.930099</v>
       </c>
       <c r="O31">
-        <v>0.2428850692428536</v>
+        <v>0.2311991757283016</v>
       </c>
       <c r="P31">
-        <v>0.2428850692428536</v>
+        <v>0.1684836119125762</v>
       </c>
       <c r="Q31">
-        <v>616.1309282485535</v>
+        <v>660.5292847923353</v>
       </c>
       <c r="R31">
-        <v>616.1309282485535</v>
+        <v>3963.175708754011</v>
       </c>
       <c r="S31">
-        <v>0.00373592370911514</v>
+        <v>0.003467950274356504</v>
       </c>
       <c r="T31">
-        <v>0.00373592370911514</v>
+        <v>0.002634317862180444</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>27.2054588177191</v>
+        <v>30.5181635</v>
       </c>
       <c r="H32">
-        <v>27.2054588177191</v>
+        <v>61.036327</v>
       </c>
       <c r="I32">
-        <v>0.1070696901852039</v>
+        <v>0.1098212517025118</v>
       </c>
       <c r="J32">
-        <v>0.1070696901852039</v>
+        <v>0.07631660854989754</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>14.2071866203834</v>
+        <v>16.675925</v>
       </c>
       <c r="N32">
-        <v>14.2071866203834</v>
+        <v>33.35185</v>
       </c>
       <c r="O32">
-        <v>0.02188883174732558</v>
+        <v>0.02433003445663251</v>
       </c>
       <c r="P32">
-        <v>0.02188883174732558</v>
+        <v>0.01773021928083408</v>
       </c>
       <c r="Q32">
-        <v>386.5130305164904</v>
+        <v>508.9186056637375</v>
       </c>
       <c r="R32">
-        <v>386.5130305164904</v>
+        <v>2035.67442265495</v>
       </c>
       <c r="S32">
-        <v>0.002343630433702206</v>
+        <v>0.002671954837992623</v>
       </c>
       <c r="T32">
-        <v>0.002343630433702206</v>
+        <v>0.001353110204359261</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>27.2054588177191</v>
+        <v>30.5181635</v>
       </c>
       <c r="H33">
-        <v>27.2054588177191</v>
+        <v>61.036327</v>
       </c>
       <c r="I33">
-        <v>0.1070696901852039</v>
+        <v>0.1098212517025118</v>
       </c>
       <c r="J33">
-        <v>0.1070696901852039</v>
+        <v>0.07631660854989754</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>166.714833297248</v>
+        <v>174.0937833333333</v>
       </c>
       <c r="N33">
-        <v>166.714833297248</v>
+        <v>522.28135</v>
       </c>
       <c r="O33">
-        <v>0.2568554234792205</v>
+        <v>0.2540013670717226</v>
       </c>
       <c r="P33">
-        <v>0.2568554234792205</v>
+        <v>0.2776506509171172</v>
       </c>
       <c r="Q33">
-        <v>4535.553531571186</v>
+        <v>5313.022544100241</v>
       </c>
       <c r="R33">
-        <v>4535.553531571186</v>
+        <v>31878.13526460145</v>
       </c>
       <c r="S33">
-        <v>0.0275014306143095</v>
+        <v>0.02789474806596573</v>
       </c>
       <c r="T33">
-        <v>0.0275014306143095</v>
+        <v>0.02118935603966588</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>27.2054588177191</v>
+        <v>30.5181635</v>
       </c>
       <c r="H34">
-        <v>27.2054588177191</v>
+        <v>61.036327</v>
       </c>
       <c r="I34">
-        <v>0.1070696901852039</v>
+        <v>0.1098212517025118</v>
       </c>
       <c r="J34">
-        <v>0.1070696901852039</v>
+        <v>0.07631660854989754</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>142.805228914054</v>
+        <v>155.1466163333333</v>
       </c>
       <c r="N34">
-        <v>142.805228914054</v>
+        <v>465.439849</v>
       </c>
       <c r="O34">
-        <v>0.2200182000744133</v>
+        <v>0.2263576096210522</v>
       </c>
       <c r="P34">
-        <v>0.2200182000744133</v>
+        <v>0.2474330684747114</v>
       </c>
       <c r="Q34">
-        <v>3885.081774176245</v>
+        <v>4734.789803732437</v>
       </c>
       <c r="R34">
-        <v>3885.081774176245</v>
+        <v>28408.73882239462</v>
       </c>
       <c r="S34">
-        <v>0.02355728051707364</v>
+        <v>0.02485887602097247</v>
       </c>
       <c r="T34">
-        <v>0.02355728051707364</v>
+        <v>0.01888325262908455</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>27.2054588177191</v>
+        <v>30.5181635</v>
       </c>
       <c r="H35">
-        <v>27.2054588177191</v>
+        <v>61.036327</v>
       </c>
       <c r="I35">
-        <v>0.1070696901852039</v>
+        <v>0.1098212517025118</v>
       </c>
       <c r="J35">
-        <v>0.1070696901852039</v>
+        <v>0.07631660854989754</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>156.234110601195</v>
+        <v>166.3144986666667</v>
       </c>
       <c r="N35">
-        <v>156.234110601195</v>
+        <v>498.943496</v>
       </c>
       <c r="O35">
-        <v>0.2407079073091197</v>
+        <v>0.2426514561079857</v>
       </c>
       <c r="P35">
-        <v>0.2407079073091197</v>
+        <v>0.2652439847512496</v>
       </c>
       <c r="Q35">
-        <v>4250.420661883782</v>
+        <v>5075.613062729865</v>
       </c>
       <c r="R35">
-        <v>4250.420661883782</v>
+        <v>30453.67837637919</v>
       </c>
       <c r="S35">
-        <v>0.02577252106071623</v>
+        <v>0.02664828663721609</v>
       </c>
       <c r="T35">
-        <v>0.02577252106071623</v>
+        <v>0.02024252135447611</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>27.2054588177191</v>
+        <v>30.5181635</v>
       </c>
       <c r="H36">
-        <v>27.2054588177191</v>
+        <v>61.036327</v>
       </c>
       <c r="I36">
-        <v>0.1070696901852039</v>
+        <v>0.1098212517025118</v>
       </c>
       <c r="J36">
-        <v>0.1070696901852039</v>
+        <v>0.07631660854989754</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>11.4524007217556</v>
+        <v>14.709034</v>
       </c>
       <c r="N36">
-        <v>11.4524007217556</v>
+        <v>44.127102</v>
       </c>
       <c r="O36">
-        <v>0.01764456814706735</v>
+        <v>0.02146035701430531</v>
       </c>
       <c r="P36">
-        <v>0.01764456814706735</v>
+        <v>0.02345846466351139</v>
       </c>
       <c r="Q36">
-        <v>311.5678161997385</v>
+        <v>448.892704539059</v>
       </c>
       <c r="R36">
-        <v>311.5678161997385</v>
+        <v>2693.356227234354</v>
       </c>
       <c r="S36">
-        <v>0.001889198444958219</v>
+        <v>0.002356803269293787</v>
       </c>
       <c r="T36">
-        <v>0.001889198444958219</v>
+        <v>0.001790270464906803</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>27.2054588177191</v>
+        <v>30.5181635</v>
       </c>
       <c r="H37">
-        <v>27.2054588177191</v>
+        <v>61.036327</v>
       </c>
       <c r="I37">
-        <v>0.1070696901852039</v>
+        <v>0.1098212517025118</v>
       </c>
       <c r="J37">
-        <v>0.1070696901852039</v>
+        <v>0.07631660854989754</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>157.647221463045</v>
+        <v>158.4650495</v>
       </c>
       <c r="N37">
-        <v>157.647221463045</v>
+        <v>316.930099</v>
       </c>
       <c r="O37">
-        <v>0.2428850692428536</v>
+        <v>0.2311991757283016</v>
       </c>
       <c r="P37">
-        <v>0.2428850692428536</v>
+        <v>0.1684836119125762</v>
       </c>
       <c r="Q37">
-        <v>4288.864991240714</v>
+        <v>4836.062289676594</v>
       </c>
       <c r="R37">
-        <v>4288.864991240714</v>
+        <v>19344.24915870637</v>
       </c>
       <c r="S37">
-        <v>0.02600562911444415</v>
+        <v>0.02539058287107106</v>
       </c>
       <c r="T37">
-        <v>0.02600562911444415</v>
+        <v>0.01285809785740493</v>
       </c>
     </row>
   </sheetData>
